--- a/analysis/overview.xlsx
+++ b/analysis/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/empro/Documents/HR/contests/bioHack/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2CB300-116B-414F-B93A-23E4FE4E7CD8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52036B3-F17A-214E-86B9-459842F127BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{88822E2F-2BCF-6A4D-BD37-6FFB62194DE2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88822E2F-2BCF-6A4D-BD37-6FFB62194DE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2715" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716" uniqueCount="57">
   <si>
     <t>FMOne mutation burden per MB</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>TC1</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -600,13 +603,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C496F28-11CE-5D4E-8CB4-572E56179A22}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A201"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -627,6 +630,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
